--- a/Income/PCAR_inc.xlsx
+++ b/Income/PCAR_inc.xlsx
@@ -1907,16 +1907,16 @@
         <v>0.1434</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1468</v>
+        <v>0.159</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1627</v>
+        <v>0.1741</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1764</v>
+        <v>0.1861</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1878</v>
+        <v>0.197</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1944</v>
@@ -2040,7 +2040,7 @@
         <v>0.1085</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1187</v>
+        <v>0.1188</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.1258</v>
@@ -2167,10 +2167,10 @@
         <v>0.102</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1129</v>
+        <v>0.113</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.121</v>
+        <v>0.1211</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1228</v>
@@ -2288,7 +2288,7 @@
         <v>0.0694</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0739</v>
+        <v>0.074</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.0795</v>
@@ -2297,7 +2297,7 @@
         <v>0.0872</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0932</v>
+        <v>0.0933</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0945</v>
@@ -2415,7 +2415,7 @@
         <v>0.1042</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1085</v>
+        <v>0.1086</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0.0873</v>
@@ -3431,16 +3431,16 @@
         <v>0.1444</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.1465</v>
+        <v>0.1487</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1525</v>
+        <v>0.1545</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.167</v>
+        <v>0.1688</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1663</v>
+        <v>0.1679</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.1677</v>
@@ -3558,10 +3558,10 @@
         <v>0.1595</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1628</v>
+        <v>0.1629</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1464</v>
+        <v>0.1465</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0.1204</v>
